--- a/Inputs/FundingModel-Inputs.xlsx
+++ b/Inputs/FundingModel-Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial Modeling Projects/Mississippi PERS/Mississippi-PERS-modeling-Steve-Github/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial Modeling Projects/Mississippi PERS/MPERS-Optimized-Models-Steve-Github/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD14F498-4081-D048-9BA1-4025D7EF4D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED1681-6972-0940-A6DB-D3BA60E0F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="760" windowWidth="22400" windowHeight="21580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="1" shapeId="0" xr:uid="{B7B9ADA6-FAFA-084A-A217-9545B5154298}">
+    <comment ref="X2" authorId="1" shapeId="0" xr:uid="{B7B9ADA6-FAFA-084A-A217-9545B5154298}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -695,7 +695,7 @@
     Page 12 Val Rep</t>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{9BDAB454-27C5-8A48-B968-ED4BE55E9D75}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{9BDAB454-27C5-8A48-B968-ED4BE55E9D75}">
       <text>
         <r>
           <rPr>
@@ -728,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{8F1A3ED0-E715-D945-B26C-94C1CE9451EA}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{8F1A3ED0-E715-D945-B26C-94C1CE9451EA}">
       <text>
         <r>
           <rPr>
@@ -762,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="0" shapeId="0" xr:uid="{6882B7FC-A335-6A4C-A261-4B58DF7DC98B}">
+    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{6882B7FC-A335-6A4C-A261-4B58DF7DC98B}">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="0" shapeId="0" xr:uid="{86CAD6C6-A2F3-9146-AAB8-B271E9D50BB2}">
+    <comment ref="AW2" authorId="0" shapeId="0" xr:uid="{86CAD6C6-A2F3-9146-AAB8-B271E9D50BB2}">
       <text>
         <r>
           <rPr>
@@ -828,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="0" shapeId="0" xr:uid="{A99B765F-CCFE-3848-ACF4-D58D218AB3F8}">
+    <comment ref="AY2" authorId="0" shapeId="0" xr:uid="{A99B765F-CCFE-3848-ACF4-D58D218AB3F8}">
       <text>
         <r>
           <rPr>
@@ -861,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="0" shapeId="0" xr:uid="{D76ADB08-9878-5C40-9CA5-634DA63F754A}">
+    <comment ref="AZ2" authorId="0" shapeId="0" xr:uid="{D76ADB08-9878-5C40-9CA5-634DA63F754A}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="0" shapeId="0" xr:uid="{FA4C883F-090A-5D40-BA47-FBDBD1919A9E}">
+    <comment ref="BB2" authorId="0" shapeId="0" xr:uid="{FA4C883F-090A-5D40-BA47-FBDBD1919A9E}">
       <text>
         <r>
           <rPr>
@@ -927,7 +927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="0" shapeId="0" xr:uid="{C92BEF96-EEBD-2546-9A68-44D55086154F}">
+    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{C92BEF96-EEBD-2546-9A68-44D55086154F}">
       <text>
         <r>
           <rPr>
@@ -960,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="0" shapeId="0" xr:uid="{D48D823A-8C94-9D44-916F-08F191D1A731}">
+    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{D48D823A-8C94-9D44-916F-08F191D1A731}">
       <text>
         <r>
           <rPr>
@@ -993,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ2" authorId="0" shapeId="0" xr:uid="{B932C39F-4024-8A43-9D9B-865D709CD175}">
+    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{B932C39F-4024-8A43-9D9B-865D709CD175}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC2" authorId="0" shapeId="0" xr:uid="{E62FDA5B-0491-0C46-86DB-877CB73C0D43}">
+    <comment ref="BJ2" authorId="0" shapeId="0" xr:uid="{E62FDA5B-0491-0C46-86DB-877CB73C0D43}">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE2" authorId="0" shapeId="0" xr:uid="{F74CE41D-B763-2E4E-866E-322B01C221FD}">
+    <comment ref="BL2" authorId="0" shapeId="0" xr:uid="{F74CE41D-B763-2E4E-866E-322B01C221FD}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG2" authorId="0" shapeId="0" xr:uid="{093AABBC-406C-B94C-8B80-A00A6AFDB36D}">
+    <comment ref="BN2" authorId="0" shapeId="0" xr:uid="{093AABBC-406C-B94C-8B80-A00A6AFDB36D}">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH2" authorId="0" shapeId="0" xr:uid="{63276749-9ECB-0B4C-B413-137105D33F33}">
+    <comment ref="BO2" authorId="0" shapeId="0" xr:uid="{63276749-9ECB-0B4C-B413-137105D33F33}">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP2" authorId="0" shapeId="0" xr:uid="{D77B3C1B-3BDD-324F-A369-C61678D4B366}">
+    <comment ref="BW2" authorId="0" shapeId="0" xr:uid="{D77B3C1B-3BDD-324F-A369-C61678D4B366}">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW2" authorId="0" shapeId="0" xr:uid="{CB91D0CE-31F0-9A44-B429-E66D9E7A2270}">
+    <comment ref="CD2" authorId="0" shapeId="0" xr:uid="{CB91D0CE-31F0-9A44-B429-E66D9E7A2270}">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="0" shapeId="0" xr:uid="{FB06F1A7-E31F-1F48-A700-A5FA8D13F687}">
+    <comment ref="AC3" authorId="0" shapeId="0" xr:uid="{FB06F1A7-E31F-1F48-A700-A5FA8D13F687}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="276">
   <si>
     <t>Economic Inputs</t>
   </si>
@@ -2070,6 +2070,27 @@
   </si>
   <si>
     <t>total_hire_ER_total_contr</t>
+  </si>
+  <si>
+    <t>total_hire_ER_contr</t>
+  </si>
+  <si>
+    <t>curr_hire_ER_contr</t>
+  </si>
+  <si>
+    <t>new_hire_ER_contr</t>
+  </si>
+  <si>
+    <t>total_hire_ER_contr_real</t>
+  </si>
+  <si>
+    <t>cum_total_hire_ER_contr_real</t>
+  </si>
+  <si>
+    <t>total_hire_ER_all_in_cost_real</t>
+  </si>
+  <si>
+    <t>total_hire_ual_mva_real</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2326,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2595,7 +2618,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W2" dT="2023-04-21T07:34:12.32" personId="{E35654D7-88CB-294F-A8E6-46DCA804A98F}" id="{B7B9ADA6-FAFA-084A-A217-9545B5154298}">
+  <threadedComment ref="X2" dT="2023-04-21T07:34:12.32" personId="{E35654D7-88CB-294F-A8E6-46DCA804A98F}" id="{B7B9ADA6-FAFA-084A-A217-9545B5154298}">
     <text>Page 12 Val Rep</text>
   </threadedComment>
 </ThreadedComments>
@@ -4613,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4644,7 +4667,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="49">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" s="6">
@@ -4665,7 +4688,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49">
+      <c r="A3">
         <v>2022</v>
       </c>
       <c r="B3" s="6">
@@ -4686,7 +4709,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4">
         <v>2023</v>
       </c>
       <c r="B4" s="6">
@@ -4704,7 +4727,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
+      <c r="A5">
         <v>2024</v>
       </c>
       <c r="B5" s="6">
@@ -4722,7 +4745,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
+      <c r="A6">
         <v>2025</v>
       </c>
       <c r="B6" s="6">
@@ -4740,7 +4763,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="A7">
         <v>2026</v>
       </c>
       <c r="B7" s="6">
@@ -4758,7 +4781,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="A8">
         <v>2027</v>
       </c>
       <c r="B8" s="6">
@@ -4778,7 +4801,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49">
+      <c r="A9">
         <v>2028</v>
       </c>
       <c r="B9" s="6">
@@ -4798,7 +4821,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
+      <c r="A10">
         <v>2029</v>
       </c>
       <c r="B10" s="6">
@@ -4818,7 +4841,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
+      <c r="A11">
         <v>2030</v>
       </c>
       <c r="B11" s="6">
@@ -4838,7 +4861,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
+      <c r="A12">
         <v>2031</v>
       </c>
       <c r="B12" s="6">
@@ -4858,7 +4881,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="49">
+      <c r="A13">
         <v>2032</v>
       </c>
       <c r="B13" s="6">
@@ -4878,7 +4901,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
+      <c r="A14">
         <v>2033</v>
       </c>
       <c r="B14" s="6">
@@ -4898,7 +4921,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
+      <c r="A15">
         <v>2034</v>
       </c>
       <c r="B15" s="6">
@@ -4918,7 +4941,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
+      <c r="A16">
         <v>2035</v>
       </c>
       <c r="B16" s="6">
@@ -4938,7 +4961,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
+      <c r="A17">
         <v>2036</v>
       </c>
       <c r="B17" s="6">
@@ -4958,7 +4981,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
+      <c r="A18">
         <v>2037</v>
       </c>
       <c r="B18" s="6">
@@ -4978,7 +5001,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
+      <c r="A19">
         <v>2038</v>
       </c>
       <c r="B19" s="6">
@@ -4997,7 +5020,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="49">
+      <c r="A20">
         <v>2039</v>
       </c>
       <c r="B20" s="6">
@@ -5016,7 +5039,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="49">
+      <c r="A21">
         <v>2040</v>
       </c>
       <c r="B21" s="6">
@@ -5035,7 +5058,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="49">
+      <c r="A22">
         <v>2041</v>
       </c>
       <c r="B22" s="6">
@@ -5054,7 +5077,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="49">
+      <c r="A23">
         <v>2042</v>
       </c>
       <c r="B23" s="6">
@@ -5074,7 +5097,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="49">
+      <c r="A24">
         <v>2043</v>
       </c>
       <c r="B24" s="6">
@@ -5094,7 +5117,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="49">
+      <c r="A25">
         <v>2044</v>
       </c>
       <c r="B25" s="6">
@@ -5114,7 +5137,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
+      <c r="A26">
         <v>2045</v>
       </c>
       <c r="B26" s="6">
@@ -5134,7 +5157,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="49">
+      <c r="A27">
         <v>2046</v>
       </c>
       <c r="B27" s="6">
@@ -5154,7 +5177,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="49">
+      <c r="A28">
         <v>2047</v>
       </c>
       <c r="B28" s="6">
@@ -5174,7 +5197,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="49">
+      <c r="A29">
         <v>2048</v>
       </c>
       <c r="B29" s="6">
@@ -5194,7 +5217,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="49">
+      <c r="A30">
         <v>2049</v>
       </c>
       <c r="B30" s="6">
@@ -5214,7 +5237,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="49">
+      <c r="A31">
         <v>2050</v>
       </c>
       <c r="B31" s="6">
@@ -5236,7 +5259,7 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="49">
+      <c r="A32">
         <v>2051</v>
       </c>
       <c r="B32" s="6">
@@ -5256,7 +5279,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="49">
+      <c r="A33">
         <v>2052</v>
       </c>
       <c r="B33" s="6">
@@ -5276,7 +5299,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="49">
+      <c r="A34">
         <v>2053</v>
       </c>
       <c r="B34" s="6">
@@ -5296,7 +5319,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="49">
+      <c r="A35">
         <v>2054</v>
       </c>
       <c r="B35" s="6">
@@ -5316,7 +5339,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="49">
+      <c r="A36">
         <v>2055</v>
       </c>
       <c r="B36" s="6">
@@ -5336,7 +5359,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="49">
+      <c r="A37">
         <v>2056</v>
       </c>
       <c r="B37" s="6">
@@ -5356,7 +5379,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
+      <c r="A38">
         <v>2057</v>
       </c>
       <c r="B38" s="6">
@@ -5376,7 +5399,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="49">
+      <c r="A39">
         <v>2058</v>
       </c>
       <c r="B39" s="6">
@@ -5396,7 +5419,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="49">
+      <c r="A40">
         <v>2059</v>
       </c>
       <c r="B40" s="6">
@@ -5416,7 +5439,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="49">
+      <c r="A41">
         <v>2060</v>
       </c>
       <c r="B41" s="6">
@@ -5436,7 +5459,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="49">
+      <c r="A42">
         <v>2061</v>
       </c>
       <c r="B42" s="6">
@@ -5456,7 +5479,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
+      <c r="A43">
         <v>2062</v>
       </c>
       <c r="B43" s="6">
@@ -5476,7 +5499,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="49">
+      <c r="A44">
         <v>2063</v>
       </c>
       <c r="B44" s="6">
@@ -5496,7 +5519,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="49">
+      <c r="A45">
         <v>2064</v>
       </c>
       <c r="B45" s="6">
@@ -5516,7 +5539,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="49">
+      <c r="A46">
         <v>2065</v>
       </c>
       <c r="B46" s="6">
@@ -5536,7 +5559,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="49">
+      <c r="A47">
         <v>2066</v>
       </c>
       <c r="B47" s="6">
@@ -5556,7 +5579,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="49">
+      <c r="A48">
         <v>2067</v>
       </c>
       <c r="B48" s="6">
@@ -5576,7 +5599,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="49">
+      <c r="A49">
         <v>2068</v>
       </c>
       <c r="B49" s="6">
@@ -5596,7 +5619,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="49">
+      <c r="A50">
         <v>2069</v>
       </c>
       <c r="B50" s="6">
@@ -5616,7 +5639,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="49">
+      <c r="A51">
         <v>2070</v>
       </c>
       <c r="B51" s="6">
@@ -5636,7 +5659,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="49">
+      <c r="A52">
         <v>2071</v>
       </c>
       <c r="B52" s="6">
@@ -5656,7 +5679,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="49">
+      <c r="A53">
         <v>2072</v>
       </c>
       <c r="B53" s="6">
@@ -5676,7 +5699,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="49">
+      <c r="A54">
         <v>2073</v>
       </c>
       <c r="B54" s="6">
@@ -5696,7 +5719,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="49">
+      <c r="A55">
         <v>2074</v>
       </c>
       <c r="B55" s="6">
@@ -5716,7 +5739,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="49">
+      <c r="A56">
         <v>2075</v>
       </c>
       <c r="B56" s="6">
@@ -5736,7 +5759,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="49">
+      <c r="A57">
         <v>2076</v>
       </c>
       <c r="B57" s="6">
@@ -5756,7 +5779,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="49">
+      <c r="A58">
         <v>2077</v>
       </c>
       <c r="B58" s="6">
@@ -5776,7 +5799,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="49">
+      <c r="A59">
         <v>2078</v>
       </c>
       <c r="B59" s="6">
@@ -5796,7 +5819,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="49">
+      <c r="A60">
         <v>2079</v>
       </c>
       <c r="B60" s="6">
@@ -5816,7 +5839,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="49">
+      <c r="A61">
         <v>2080</v>
       </c>
       <c r="B61" s="6">
@@ -5852,11 +5875,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CK7"/>
+  <dimension ref="A1:CR7"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY20" sqref="AY20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5882,63 +5905,67 @@
     <col min="20" max="20" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16" style="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16" style="21" customWidth="1"/>
-    <col min="36" max="36" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.5" style="21" customWidth="1"/>
-    <col min="41" max="41" width="13.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="12.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="16.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="56" max="58" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="71" max="73" width="24.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="23.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14" style="21" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="78" max="80" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="85" max="87" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="90" max="16384" width="8.5" style="21"/>
+    <col min="23" max="23" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="17.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16" style="21" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16" style="21" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22" style="21" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="17.5" style="21" customWidth="1"/>
+    <col min="48" max="48" width="13.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="12.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="16.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19" style="21" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14" style="21" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="24.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="78" max="80" width="24.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="23.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14" style="21" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="85" max="87" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="22.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="14.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="24.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="24.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="92" max="94" width="24.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="97" max="16384" width="8.5" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>37</v>
       </c>
@@ -6006,208 +6033,229 @@
         <v>263</v>
       </c>
       <c r="W1" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Z1" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AF1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AG1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AH1" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AI1" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AJ1" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AL1" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO1" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP1" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="AQ1" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR1" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS1" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AT1" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AU1" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AW1" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="AQ1" s="27" t="s">
+      <c r="AX1" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="AS1" s="27" t="s">
+      <c r="AZ1" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="AT1" s="27" t="s">
+      <c r="BA1" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="AV1" s="27" t="s">
+      <c r="BC1" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="AW1" s="27" t="s">
+      <c r="BD1" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="AY1" s="27" t="s">
+      <c r="BF1" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="BG1" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="BB1" s="27" t="s">
+      <c r="BI1" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="BC1" s="27" t="s">
+      <c r="BJ1" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="BE1" s="27" t="s">
+      <c r="BL1" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="BF1" s="27" t="s">
+      <c r="BM1" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BN1" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="BH1" s="27" t="s">
+      <c r="BO1" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="BI1" s="27" t="s">
+      <c r="BP1" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="BJ1" s="37" t="s">
+      <c r="BQ1" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="BK1" s="37" t="s">
+      <c r="BR1" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="BL1" s="37" t="s">
+      <c r="BS1" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="BM1" s="37" t="s">
+      <c r="BT1" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="BN1" s="37" t="s">
+      <c r="BU1" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="BO1" s="37" t="s">
+      <c r="BV1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="BP1" s="37" t="s">
+      <c r="BW1" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="BQ1" s="37" t="s">
+      <c r="BX1" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="BR1" s="37" t="s">
+      <c r="BY1" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="BS1" s="37" t="s">
+      <c r="BZ1" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="BT1" s="37" t="s">
+      <c r="CA1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="BU1" s="37" t="s">
+      <c r="CB1" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="BV1" s="37" t="s">
+      <c r="CC1" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="BW1" s="37" t="s">
+      <c r="CD1" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="BX1" s="37" t="s">
+      <c r="CE1" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="BY1" s="37" t="s">
+      <c r="CF1" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="BZ1" s="37" t="s">
+      <c r="CG1" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="CA1" s="37" t="s">
+      <c r="CH1" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="CB1" s="37" t="s">
+      <c r="CI1" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="CC1" s="37" t="s">
+      <c r="CJ1" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="CD1" s="37" t="s">
+      <c r="CK1" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="CE1" s="37" t="s">
+      <c r="CL1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="CF1" s="37" t="s">
+      <c r="CM1" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="CG1" s="37" t="s">
+      <c r="CN1" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="CH1" s="37" t="s">
+      <c r="CO1" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="CI1" s="37" t="s">
+      <c r="CP1" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="CJ1" s="37" t="s">
+      <c r="CQ1" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="CK1" s="37" t="s">
+      <c r="CR1" s="37" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="28">
         <v>2021</v>
       </c>
@@ -6265,176 +6313,170 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="T2" s="26">
-        <f t="shared" ref="T2:V3" si="0">-M2+G2</f>
+        <f>-M2+G2</f>
         <v>19435.749</v>
       </c>
       <c r="U2" s="26">
-        <f t="shared" si="0"/>
+        <f>-N2+H2</f>
         <v>19435.749</v>
       </c>
       <c r="V2" s="26">
-        <f t="shared" si="0"/>
+        <f>-O2+I2</f>
         <v>0</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="26"/>
+      <c r="X2" s="26">
         <f>-P2+G2</f>
         <v>14987.402999999998</v>
       </c>
-      <c r="X2" s="26">
+      <c r="Y2" s="26">
         <f>-Q2+H2</f>
         <v>14987.402999999998</v>
       </c>
-      <c r="Y2" s="26">
-        <f t="shared" ref="Y2:Y3" si="1">R2-I2</f>
+      <c r="Z2" s="26">
+        <f>R2-I2</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="34">
+      <c r="AA2" s="34">
         <f>M2/G2</f>
         <v>0.61286453270655727</v>
       </c>
-      <c r="AA2" s="34">
+      <c r="AB2" s="34">
         <f>P2/G2</f>
         <v>0.70146994263405305</v>
       </c>
-      <c r="AB2" s="29">
+      <c r="AC2" s="29">
         <v>2.8E-3</v>
-      </c>
-      <c r="AC2" s="29">
-        <v>0.10489999999999999</v>
       </c>
       <c r="AD2" s="29">
         <v>0.10489999999999999</v>
       </c>
       <c r="AE2" s="29">
-        <v>0.09</v>
+        <v>0.10489999999999999</v>
       </c>
       <c r="AF2" s="29">
         <v>0.09</v>
       </c>
       <c r="AG2" s="29">
-        <f>AC2-AE2</f>
-        <v>1.4899999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" s="29">
         <f>AD2-AF2</f>
         <v>1.4899999999999997E-2</v>
       </c>
       <c r="AI2" s="29">
+        <f>AE2-AG2</f>
+        <v>1.4899999999999997E-2</v>
+      </c>
+      <c r="AJ2" s="29">
         <v>2.8E-3</v>
-      </c>
-      <c r="AJ2" s="29">
-        <v>0.15629999999999999</v>
       </c>
       <c r="AK2" s="29">
         <v>0.15629999999999999</v>
       </c>
       <c r="AL2" s="29">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="49">
+        <f>AS2*B2</f>
+        <v>1086.8039999999999</v>
+      </c>
+      <c r="AQ2" s="49">
+        <f>AT2*C2</f>
+        <v>1086.8039999999999</v>
+      </c>
+      <c r="AR2" s="49">
+        <f>AU2*D2</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AM2" s="29">
+      <c r="AT2" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AN2" s="29">
+      <c r="AU2" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AO2" s="36">
+      <c r="AV2" s="36">
         <f>-2995.255</f>
         <v>-2995.2550000000001</v>
       </c>
-      <c r="AP2" s="36">
+      <c r="AW2" s="36">
         <f>-2995.255</f>
         <v>-2995.2550000000001</v>
       </c>
-      <c r="AQ2" s="36">
+      <c r="AX2" s="36">
         <v>0</v>
       </c>
-      <c r="AR2" s="26">
+      <c r="AY2" s="26">
         <f>-(101.044)</f>
         <v>-101.044</v>
       </c>
-      <c r="AS2" s="26">
+      <c r="AZ2" s="26">
         <f>-(101.044)</f>
         <v>-101.044</v>
       </c>
-      <c r="AT2" s="26">
+      <c r="BA2" s="26">
         <v>0</v>
       </c>
-      <c r="AU2" s="26">
+      <c r="BB2" s="26">
         <v>-15.691000000000001</v>
       </c>
-      <c r="AV2" s="26">
+      <c r="BC2" s="26">
         <v>-15.691000000000001</v>
       </c>
-      <c r="AW2" s="26">
+      <c r="BD2" s="26">
         <v>0</v>
       </c>
-      <c r="AX2" s="26">
-        <f>C2*AE2</f>
+      <c r="BE2" s="26">
+        <f>C2*AF2</f>
         <v>562.14</v>
       </c>
-      <c r="AY2" s="41">
+      <c r="BF2" s="41">
         <v>0</v>
       </c>
-      <c r="AZ2" s="26">
-        <f>C2*(AG2+AI2)</f>
+      <c r="BG2" s="26">
+        <f>C2*(AH2+AJ2)</f>
         <v>110.55419999999998</v>
       </c>
-      <c r="BA2" s="41">
+      <c r="BH2" s="41">
         <v>0</v>
       </c>
-      <c r="BB2" s="26">
+      <c r="BI2" s="26">
         <v>1086.8039999999999</v>
       </c>
-      <c r="BC2" s="26">
-        <f>AZ2+BE2</f>
+      <c r="BJ2" s="26">
+        <f>BG2+BL2</f>
         <v>1086.8039999999999</v>
       </c>
-      <c r="BD2" s="41"/>
-      <c r="BE2" s="26">
-        <f>C2*AJ2</f>
+      <c r="BK2" s="41"/>
+      <c r="BL2" s="26">
+        <f>C2*AK2</f>
         <v>976.24979999999994</v>
       </c>
-      <c r="BF2" s="41">
-        <f>BD2-BA2</f>
+      <c r="BM2" s="41">
+        <f>BK2-BH2</f>
         <v>0</v>
       </c>
-      <c r="BG2" s="26">
+      <c r="BN2" s="26">
         <v>-1347.4349999999999</v>
       </c>
-      <c r="BH2" s="26">
+      <c r="BO2" s="26">
         <v>-1347.4349999999999</v>
       </c>
-      <c r="BI2" s="26">
+      <c r="BP2" s="26">
         <v>0</v>
       </c>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="45">
-        <v>2104.41</v>
-      </c>
-      <c r="BQ2" s="45">
-        <v>1326.4456</v>
-      </c>
-      <c r="BR2" s="45">
-        <v>-256.23099999999999</v>
-      </c>
-      <c r="BS2" s="45">
-        <v>-81.275000000000006</v>
-      </c>
-      <c r="BT2" s="45">
-        <v>73.801000000000002</v>
-      </c>
-      <c r="BU2" s="45">
-        <v>319.33</v>
-      </c>
-      <c r="BV2" s="45">
-        <f>SUM(BQ2:BU2)</f>
-        <v>1382.0706</v>
-      </c>
+      <c r="BQ2" s="40"/>
+      <c r="BR2" s="40"/>
+      <c r="BS2" s="40"/>
+      <c r="BT2" s="40"/>
+      <c r="BU2" s="40"/>
+      <c r="BV2" s="40"/>
       <c r="BW2" s="45">
         <v>2104.41</v>
       </c>
@@ -6458,31 +6500,53 @@
         <v>1382.0706</v>
       </c>
       <c r="CD2" s="45">
+        <v>2104.41</v>
+      </c>
+      <c r="CE2" s="45">
+        <v>1326.4456</v>
+      </c>
+      <c r="CF2" s="45">
+        <v>-256.23099999999999</v>
+      </c>
+      <c r="CG2" s="45">
+        <v>-81.275000000000006</v>
+      </c>
+      <c r="CH2" s="45">
+        <v>73.801000000000002</v>
+      </c>
+      <c r="CI2" s="45">
+        <v>319.33</v>
+      </c>
+      <c r="CJ2" s="45">
+        <f>SUM(CE2:CI2)</f>
+        <v>1382.0706</v>
+      </c>
+      <c r="CK2" s="45">
         <v>0</v>
       </c>
-      <c r="CE2" s="45">
+      <c r="CL2" s="45">
         <v>0</v>
       </c>
-      <c r="CF2" s="45">
+      <c r="CM2" s="45">
         <v>0</v>
       </c>
-      <c r="CG2" s="45">
+      <c r="CN2" s="45">
         <v>0</v>
       </c>
-      <c r="CH2" s="45">
+      <c r="CO2" s="45">
         <v>0</v>
       </c>
-      <c r="CI2" s="45">
+      <c r="CP2" s="45">
         <v>0</v>
       </c>
-      <c r="CJ2" s="45">
+      <c r="CQ2" s="45">
         <v>0</v>
       </c>
-      <c r="CK2" s="29">
+      <c r="CR2" s="29">
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>2022</v>
       </c>
@@ -6540,176 +6604,170 @@
         <v>-8.5999999999999993E-2</v>
       </c>
       <c r="T3" s="26">
-        <f t="shared" si="0"/>
+        <f>-M3+G3</f>
         <v>20126.8</v>
       </c>
       <c r="U3" s="26">
-        <f t="shared" si="0"/>
+        <f>-N3+H3</f>
         <v>20126.8</v>
       </c>
       <c r="V3" s="26">
-        <f t="shared" si="0"/>
+        <f>-O3+I3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26">
         <f>-P3+G3</f>
         <v>21208.884999999998</v>
       </c>
-      <c r="X3" s="26">
+      <c r="Y3" s="26">
         <f>-Q3+H3</f>
         <v>21208.884999999998</v>
       </c>
-      <c r="Y3" s="26">
-        <f t="shared" si="1"/>
+      <c r="Z3" s="26">
+        <f>R3-I3</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="34">
+      <c r="AA3" s="34">
         <f>M3/G3</f>
         <v>0.61294615384615381</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AB3" s="34">
         <f>P3/G3</f>
         <v>0.59213682692307701</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AC3" s="29">
         <v>2.8E-3</v>
-      </c>
-      <c r="AC3" s="29">
-        <v>0.1032</v>
       </c>
       <c r="AD3" s="29">
         <v>0.1032</v>
       </c>
       <c r="AE3" s="29">
-        <v>0.09</v>
+        <v>0.1032</v>
       </c>
       <c r="AF3" s="29">
         <v>0.09</v>
       </c>
       <c r="AG3" s="29">
-        <f>AC3-AE3</f>
-        <v>1.3200000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="AH3" s="29">
         <f>AD3-AF3</f>
         <v>1.3200000000000003E-2</v>
       </c>
       <c r="AI3" s="29">
+        <f>AE3-AG3</f>
+        <v>1.3200000000000003E-2</v>
+      </c>
+      <c r="AJ3" s="29">
         <v>2.8E-3</v>
-      </c>
-      <c r="AJ3" s="29">
-        <v>0.158</v>
       </c>
       <c r="AK3" s="29">
         <v>0.158</v>
       </c>
       <c r="AL3" s="29">
+        <v>0.158</v>
+      </c>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="49">
+        <f>AS3*B3</f>
+        <v>1123.1699999999998</v>
+      </c>
+      <c r="AQ3" s="49">
+        <f>AT3*C3</f>
+        <v>1123.1699999999998</v>
+      </c>
+      <c r="AR3" s="49">
+        <f>AU3*D3</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AM3" s="29">
+      <c r="AT3" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AU3" s="29">
         <v>0.17399999999999999</v>
       </c>
-      <c r="AO3" s="36">
+      <c r="AV3" s="36">
         <f>-3134.86</f>
         <v>-3134.86</v>
       </c>
-      <c r="AP3" s="36">
+      <c r="AW3" s="36">
         <f>-3134.86</f>
         <v>-3134.86</v>
       </c>
-      <c r="AQ3" s="36">
+      <c r="AX3" s="36">
         <v>0</v>
       </c>
-      <c r="AR3" s="26">
+      <c r="AY3" s="26">
         <f>-(120.806)</f>
         <v>-120.806</v>
       </c>
-      <c r="AS3" s="26">
+      <c r="AZ3" s="26">
         <f>-(120.806)</f>
         <v>-120.806</v>
       </c>
-      <c r="AT3" s="26">
+      <c r="BA3" s="26">
         <v>0</v>
       </c>
-      <c r="AU3" s="26">
+      <c r="BB3" s="26">
         <v>-15.926</v>
       </c>
-      <c r="AV3" s="26">
+      <c r="BC3" s="26">
         <v>-15.926</v>
       </c>
-      <c r="AW3" s="26">
+      <c r="BD3" s="26">
         <v>0</v>
       </c>
-      <c r="AX3" s="26">
-        <f>C3*AE3</f>
+      <c r="BE3" s="26">
+        <f>C3*AF3</f>
         <v>580.94999999999993</v>
       </c>
-      <c r="AY3" s="41">
+      <c r="BF3" s="41">
         <v>0</v>
       </c>
-      <c r="AZ3" s="26">
-        <f>C3*(AG3+AI3)</f>
+      <c r="BG3" s="26">
+        <f>C3*(AH3+AJ3)</f>
         <v>103.28000000000003</v>
       </c>
-      <c r="BA3" s="41">
+      <c r="BH3" s="41">
         <v>0</v>
       </c>
-      <c r="BB3" s="26">
+      <c r="BI3" s="26">
         <v>1123.17</v>
       </c>
-      <c r="BC3" s="26">
-        <f>AZ3+BE3</f>
+      <c r="BJ3" s="26">
+        <f>BG3+BL3</f>
         <v>1123.17</v>
       </c>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="26">
-        <f>C3*AJ3</f>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="26">
+        <f>C3*AK3</f>
         <v>1019.89</v>
       </c>
-      <c r="BF3" s="41">
-        <f>BD3-BA3</f>
+      <c r="BM3" s="41">
+        <f>BK3-BH3</f>
         <v>0</v>
       </c>
-      <c r="BG3" s="26">
+      <c r="BN3" s="26">
         <v>-1445.1679999999999</v>
       </c>
-      <c r="BH3" s="26">
+      <c r="BO3" s="26">
         <v>-1445.1679999999999</v>
       </c>
-      <c r="BI3" s="26">
+      <c r="BP3" s="26">
         <v>0</v>
       </c>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="40"/>
-      <c r="BL3" s="40"/>
-      <c r="BM3" s="40"/>
-      <c r="BN3" s="40"/>
-      <c r="BO3" s="40"/>
-      <c r="BP3" s="45">
-        <v>2604.2979999999998</v>
-      </c>
-      <c r="BQ3" s="45">
-        <v>-1116.9224000000002</v>
-      </c>
-      <c r="BR3" s="45">
-        <v>1326.4459999999999</v>
-      </c>
-      <c r="BS3" s="45">
-        <v>-256.23099999999999</v>
-      </c>
-      <c r="BT3" s="45">
-        <v>-81.275000000000006</v>
-      </c>
-      <c r="BU3" s="45">
-        <v>73.801000000000002</v>
-      </c>
-      <c r="BV3" s="45">
-        <f>SUM(BQ3:BU3)</f>
-        <v>-54.181400000000238</v>
-      </c>
+      <c r="BQ3" s="40"/>
+      <c r="BR3" s="40"/>
+      <c r="BS3" s="40"/>
+      <c r="BT3" s="40"/>
+      <c r="BU3" s="40"/>
+      <c r="BV3" s="40"/>
       <c r="BW3" s="45">
         <v>2604.2979999999998</v>
       </c>
@@ -6733,44 +6791,66 @@
         <v>-54.181400000000238</v>
       </c>
       <c r="CD3" s="45">
+        <v>2604.2979999999998</v>
+      </c>
+      <c r="CE3" s="45">
+        <v>-1116.9224000000002</v>
+      </c>
+      <c r="CF3" s="45">
+        <v>1326.4459999999999</v>
+      </c>
+      <c r="CG3" s="45">
+        <v>-256.23099999999999</v>
+      </c>
+      <c r="CH3" s="45">
+        <v>-81.275000000000006</v>
+      </c>
+      <c r="CI3" s="45">
+        <v>73.801000000000002</v>
+      </c>
+      <c r="CJ3" s="45">
+        <f>SUM(CE3:CI3)</f>
+        <v>-54.181400000000238</v>
+      </c>
+      <c r="CK3" s="45">
         <v>0</v>
       </c>
-      <c r="CE3" s="45">
+      <c r="CL3" s="45">
         <v>0</v>
       </c>
-      <c r="CF3" s="45">
+      <c r="CM3" s="45">
         <v>0</v>
       </c>
-      <c r="CG3" s="45">
+      <c r="CN3" s="45">
         <v>0</v>
       </c>
-      <c r="CH3" s="45">
+      <c r="CO3" s="45">
         <v>0</v>
       </c>
-      <c r="CI3" s="45">
+      <c r="CP3" s="45">
         <v>0</v>
       </c>
-      <c r="CJ3" s="45">
+      <c r="CQ3" s="45">
         <v>0</v>
       </c>
-      <c r="CK3" s="29">
+      <c r="CR3" s="29">
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="CK5" s="47"/>
-    </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="AU6" s="42"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="42"/>
-      <c r="BD6" s="43"/>
-    </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="BD7" s="43"/>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="CR5" s="47"/>
+    </row>
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BK6" s="43"/>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BK7" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/FundingModel-Inputs.xlsx
+++ b/Inputs/FundingModel-Inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial Modeling Projects/Mississippi PERS/MPERS-Optimized-Models-Steve-Github/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial_Modeling_Projects/MS_PERS/MPERS-Optimized-Models-Steve-Github/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED1681-6972-0940-A6DB-D3BA60E0F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898CE66-1A5F-1F48-910F-0E9F1784AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="760" windowWidth="22400" windowHeight="21580" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="760" windowWidth="22400" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -4636,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4713,8 +4713,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="7">
         <v>-0.24</v>
@@ -4731,8 +4730,7 @@
         <v>2024</v>
       </c>
       <c r="B5" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C5" s="9">
         <v>0.11</v>
@@ -4749,8 +4747,7 @@
         <v>2025</v>
       </c>
       <c r="B6" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C6" s="9">
         <v>0.11</v>
@@ -4767,8 +4764,7 @@
         <v>2026</v>
       </c>
       <c r="B7" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C7" s="9">
         <v>0.11</v>
@@ -4785,16 +4781,14 @@
         <v>2027</v>
       </c>
       <c r="B8" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C8" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D8" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D8" s="6">
+        <v>0.06</v>
       </c>
       <c r="E8" s="8">
         <v>0.06</v>
@@ -4805,16 +4799,14 @@
         <v>2028</v>
       </c>
       <c r="B9" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C9" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D9" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D9" s="6">
+        <v>0.06</v>
       </c>
       <c r="E9" s="8">
         <v>0.06</v>
@@ -4825,16 +4817,14 @@
         <v>2029</v>
       </c>
       <c r="B10" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C10" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D10" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D10" s="6">
+        <v>0.06</v>
       </c>
       <c r="E10" s="8">
         <v>0.06</v>
@@ -4845,16 +4835,14 @@
         <v>2030</v>
       </c>
       <c r="B11" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C11" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D11" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D11" s="6">
+        <v>0.06</v>
       </c>
       <c r="E11" s="8">
         <v>0.06</v>
@@ -4865,16 +4853,14 @@
         <v>2031</v>
       </c>
       <c r="B12" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C12" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D12" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D12" s="6">
+        <v>0.06</v>
       </c>
       <c r="E12" s="8">
         <v>0.06</v>
@@ -4885,16 +4871,14 @@
         <v>2032</v>
       </c>
       <c r="B13" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C13" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D13" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D13" s="6">
+        <v>0.06</v>
       </c>
       <c r="E13" s="8">
         <v>0.06</v>
@@ -4905,16 +4889,14 @@
         <v>2033</v>
       </c>
       <c r="B14" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C14" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D14" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D14" s="6">
+        <v>0.06</v>
       </c>
       <c r="E14" s="8">
         <v>0.06</v>
@@ -4925,16 +4907,14 @@
         <v>2034</v>
       </c>
       <c r="B15" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C15" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D15" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D15" s="6">
+        <v>0.06</v>
       </c>
       <c r="E15" s="8">
         <v>0.06</v>
@@ -4945,16 +4925,14 @@
         <v>2035</v>
       </c>
       <c r="B16" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C16" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D16" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D16" s="6">
+        <v>0.06</v>
       </c>
       <c r="E16" s="8">
         <v>0.06</v>
@@ -4965,16 +4943,14 @@
         <v>2036</v>
       </c>
       <c r="B17" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C17" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D17" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D17" s="6">
+        <v>0.06</v>
       </c>
       <c r="E17" s="8">
         <v>0.06</v>
@@ -4985,16 +4961,14 @@
         <v>2037</v>
       </c>
       <c r="B18" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C18" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="D18" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+      <c r="D18" s="6">
+        <v>0.06</v>
       </c>
       <c r="E18" s="8">
         <v>0.06</v>
@@ -5005,8 +4979,7 @@
         <v>2038</v>
       </c>
       <c r="B19" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C19" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5024,8 +4997,7 @@
         <v>2039</v>
       </c>
       <c r="B20" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C20" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5043,8 +5015,7 @@
         <v>2040</v>
       </c>
       <c r="B21" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C21" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5062,8 +5033,7 @@
         <v>2041</v>
       </c>
       <c r="B22" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C22" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5081,16 +5051,14 @@
         <v>2042</v>
       </c>
       <c r="B23" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C23" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D23" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E23" s="8">
         <v>0.06</v>
@@ -5101,16 +5069,14 @@
         <v>2043</v>
       </c>
       <c r="B24" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C24" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D24" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E24" s="8">
         <v>0.06</v>
@@ -5121,16 +5087,14 @@
         <v>2044</v>
       </c>
       <c r="B25" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C25" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D25" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E25" s="8">
         <v>0.06</v>
@@ -5141,16 +5105,14 @@
         <v>2045</v>
       </c>
       <c r="B26" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C26" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D26" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E26" s="8">
         <v>0.06</v>
@@ -5161,16 +5123,14 @@
         <v>2046</v>
       </c>
       <c r="B27" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C27" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D27" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E27" s="8">
         <v>0.06</v>
@@ -5181,16 +5141,14 @@
         <v>2047</v>
       </c>
       <c r="B28" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C28" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D28" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E28" s="8">
         <v>0.06</v>
@@ -5201,16 +5159,14 @@
         <v>2048</v>
       </c>
       <c r="B29" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C29" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D29" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E29" s="8">
         <v>0.06</v>
@@ -5221,16 +5177,14 @@
         <v>2049</v>
       </c>
       <c r="B30" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C30" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D30" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E30" s="8">
         <v>0.06</v>
@@ -5241,16 +5195,14 @@
         <v>2050</v>
       </c>
       <c r="B31" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C31" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D31" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E31" s="8">
         <v>0.06</v>
@@ -5263,16 +5215,14 @@
         <v>2051</v>
       </c>
       <c r="B32" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C32" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D32" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E32" s="8">
         <v>0.06</v>
@@ -5283,16 +5233,14 @@
         <v>2052</v>
       </c>
       <c r="B33" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C33" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D33" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E33" s="8">
         <v>0.06</v>
@@ -5303,16 +5251,14 @@
         <v>2053</v>
       </c>
       <c r="B34" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C34" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D34" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E34" s="8">
         <v>0.06</v>
@@ -5323,16 +5269,14 @@
         <v>2054</v>
       </c>
       <c r="B35" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C35" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D35" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E35" s="8">
         <v>0.06</v>
@@ -5343,16 +5287,14 @@
         <v>2055</v>
       </c>
       <c r="B36" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C36" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D36" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="8">
         <v>0.06</v>
@@ -5363,16 +5305,14 @@
         <v>2056</v>
       </c>
       <c r="B37" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C37" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D37" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E37" s="8">
         <v>0.06</v>
@@ -5383,16 +5323,14 @@
         <v>2057</v>
       </c>
       <c r="B38" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C38" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D38" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E38" s="8">
         <v>0.06</v>
@@ -5403,16 +5341,14 @@
         <v>2058</v>
       </c>
       <c r="B39" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C39" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D39" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E39" s="8">
         <v>0.06</v>
@@ -5423,16 +5359,14 @@
         <v>2059</v>
       </c>
       <c r="B40" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C40" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D40" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E40" s="8">
         <v>0.06</v>
@@ -5443,16 +5377,14 @@
         <v>2060</v>
       </c>
       <c r="B41" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C41" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D41" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E41" s="8">
         <v>0.06</v>
@@ -5463,16 +5395,14 @@
         <v>2061</v>
       </c>
       <c r="B42" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C42" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D42" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E42" s="8">
         <v>0.06</v>
@@ -5483,16 +5413,14 @@
         <v>2062</v>
       </c>
       <c r="B43" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C43" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D43" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E43" s="8">
         <v>0.06</v>
@@ -5503,16 +5431,14 @@
         <v>2063</v>
       </c>
       <c r="B44" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C44" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D44" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E44" s="8">
         <v>0.06</v>
@@ -5523,16 +5449,14 @@
         <v>2064</v>
       </c>
       <c r="B45" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C45" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D45" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E45" s="8">
         <v>0.06</v>
@@ -5543,16 +5467,14 @@
         <v>2065</v>
       </c>
       <c r="B46" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C46" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D46" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E46" s="8">
         <v>0.06</v>
@@ -5563,16 +5485,14 @@
         <v>2066</v>
       </c>
       <c r="B47" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C47" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D47" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E47" s="8">
         <v>0.06</v>
@@ -5583,16 +5503,14 @@
         <v>2067</v>
       </c>
       <c r="B48" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C48" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D48" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E48" s="8">
         <v>0.06</v>
@@ -5603,16 +5521,14 @@
         <v>2068</v>
       </c>
       <c r="B49" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C49" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D49" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E49" s="8">
         <v>0.06</v>
@@ -5623,16 +5539,14 @@
         <v>2069</v>
       </c>
       <c r="B50" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C50" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D50" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E50" s="8">
         <v>0.06</v>
@@ -5643,16 +5557,14 @@
         <v>2070</v>
       </c>
       <c r="B51" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C51" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D51" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E51" s="8">
         <v>0.06</v>
@@ -5663,16 +5575,14 @@
         <v>2071</v>
       </c>
       <c r="B52" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C52" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D52" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E52" s="8">
         <v>0.06</v>
@@ -5683,16 +5593,14 @@
         <v>2072</v>
       </c>
       <c r="B53" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C53" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D53" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E53" s="8">
         <v>0.06</v>
@@ -5703,16 +5611,14 @@
         <v>2073</v>
       </c>
       <c r="B54" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C54" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D54" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E54" s="8">
         <v>0.06</v>
@@ -5723,16 +5629,14 @@
         <v>2074</v>
       </c>
       <c r="B55" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C55" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D55" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E55" s="8">
         <v>0.06</v>
@@ -5743,16 +5647,14 @@
         <v>2075</v>
       </c>
       <c r="B56" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C56" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D56" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E56" s="8">
         <v>0.06</v>
@@ -5763,16 +5665,14 @@
         <v>2076</v>
       </c>
       <c r="B57" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C57" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D57" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E57" s="8">
         <v>0.06</v>
@@ -5783,16 +5683,14 @@
         <v>2077</v>
       </c>
       <c r="B58" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C58" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D58" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E58" s="8">
         <v>0.06</v>
@@ -5803,16 +5701,14 @@
         <v>2078</v>
       </c>
       <c r="B59" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C59" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D59" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E59" s="8">
         <v>0.06</v>
@@ -5823,16 +5719,14 @@
         <v>2079</v>
       </c>
       <c r="B60" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C60" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D60" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E60" s="8">
         <v>0.06</v>
@@ -5843,16 +5737,14 @@
         <v>2080</v>
       </c>
       <c r="B61" s="6">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C61" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D61" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E61" s="8">
         <v>0.06</v>
@@ -5864,8 +5756,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D62" s="10">
-        <f>'Numeric Inputs'!$C$17</f>
-        <v>7.5499999999999998E-2</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -5877,7 +5768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CR7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="X13" sqref="X13"/>
     </sheetView>
@@ -6313,15 +6204,15 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="T2" s="26">
-        <f>-M2+G2</f>
+        <f t="shared" ref="T2:V3" si="0">-M2+G2</f>
         <v>19435.749</v>
       </c>
       <c r="U2" s="26">
-        <f>-N2+H2</f>
+        <f t="shared" si="0"/>
         <v>19435.749</v>
       </c>
       <c r="V2" s="26">
-        <f>-O2+I2</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W2" s="26"/>
@@ -6381,15 +6272,15 @@
       <c r="AN2" s="29"/>
       <c r="AO2" s="29"/>
       <c r="AP2" s="49">
-        <f>AS2*B2</f>
+        <f t="shared" ref="AP2:AR3" si="1">AS2*B2</f>
         <v>1086.8039999999999</v>
       </c>
       <c r="AQ2" s="49">
-        <f>AT2*C2</f>
+        <f t="shared" si="1"/>
         <v>1086.8039999999999</v>
       </c>
       <c r="AR2" s="49">
-        <f>AU2*D2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS2" s="29">
@@ -6604,15 +6495,15 @@
         <v>-8.5999999999999993E-2</v>
       </c>
       <c r="T3" s="26">
-        <f>-M3+G3</f>
+        <f t="shared" si="0"/>
         <v>20126.8</v>
       </c>
       <c r="U3" s="26">
-        <f>-N3+H3</f>
+        <f t="shared" si="0"/>
         <v>20126.8</v>
       </c>
       <c r="V3" s="26">
-        <f>-O3+I3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="26"/>
@@ -6672,15 +6563,15 @@
       <c r="AN3" s="29"/>
       <c r="AO3" s="29"/>
       <c r="AP3" s="49">
-        <f>AS3*B3</f>
+        <f t="shared" si="1"/>
         <v>1123.1699999999998</v>
       </c>
       <c r="AQ3" s="49">
-        <f>AT3*C3</f>
+        <f t="shared" si="1"/>
         <v>1123.1699999999998</v>
       </c>
       <c r="AR3" s="49">
-        <f>AU3*D3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS3" s="29">

--- a/Inputs/FundingModel-Inputs.xlsx
+++ b/Inputs/FundingModel-Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anhtu/Documents/Reason Org/Actuarial_Modeling_Projects/MS_PERS/MPERS-Optimized-Models-Steve-Github/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898CE66-1A5F-1F48-910F-0E9F1784AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C2B0DF-D507-F942-927C-2AAAB2562E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="760" windowWidth="22400" windowHeight="21580" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4637,7 +4637,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4713,7 +4713,7 @@
         <v>2023</v>
       </c>
       <c r="B4" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C4" s="7">
         <v>-0.24</v>
@@ -4730,7 +4730,7 @@
         <v>2024</v>
       </c>
       <c r="B5" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C5" s="9">
         <v>0.11</v>
@@ -4747,7 +4747,7 @@
         <v>2025</v>
       </c>
       <c r="B6" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C6" s="9">
         <v>0.11</v>
@@ -4764,7 +4764,7 @@
         <v>2026</v>
       </c>
       <c r="B7" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C7" s="9">
         <v>0.11</v>
@@ -4781,14 +4781,14 @@
         <v>2027</v>
       </c>
       <c r="B8" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C8" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E8" s="8">
         <v>0.06</v>
@@ -4799,14 +4799,14 @@
         <v>2028</v>
       </c>
       <c r="B9" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C9" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D9" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E9" s="8">
         <v>0.06</v>
@@ -4817,14 +4817,14 @@
         <v>2029</v>
       </c>
       <c r="B10" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C10" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D10" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E10" s="8">
         <v>0.06</v>
@@ -4835,14 +4835,14 @@
         <v>2030</v>
       </c>
       <c r="B11" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C11" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D11" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E11" s="8">
         <v>0.06</v>
@@ -4853,14 +4853,14 @@
         <v>2031</v>
       </c>
       <c r="B12" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C12" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D12" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E12" s="8">
         <v>0.06</v>
@@ -4871,14 +4871,14 @@
         <v>2032</v>
       </c>
       <c r="B13" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C13" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D13" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E13" s="8">
         <v>0.06</v>
@@ -4889,14 +4889,14 @@
         <v>2033</v>
       </c>
       <c r="B14" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C14" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D14" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E14" s="8">
         <v>0.06</v>
@@ -4907,14 +4907,14 @@
         <v>2034</v>
       </c>
       <c r="B15" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C15" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D15" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E15" s="8">
         <v>0.06</v>
@@ -4925,14 +4925,14 @@
         <v>2035</v>
       </c>
       <c r="B16" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C16" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D16" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E16" s="8">
         <v>0.06</v>
@@ -4943,14 +4943,14 @@
         <v>2036</v>
       </c>
       <c r="B17" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C17" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D17" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E17" s="8">
         <v>0.06</v>
@@ -4961,14 +4961,14 @@
         <v>2037</v>
       </c>
       <c r="B18" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C18" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D18" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E18" s="8">
         <v>0.06</v>
@@ -4979,7 +4979,7 @@
         <v>2038</v>
       </c>
       <c r="B19" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C19" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -4997,7 +4997,7 @@
         <v>2039</v>
       </c>
       <c r="B20" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C20" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5015,7 +5015,7 @@
         <v>2040</v>
       </c>
       <c r="B21" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C21" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5033,7 +5033,7 @@
         <v>2041</v>
       </c>
       <c r="B22" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C22" s="10">
         <f>'Numeric Inputs'!$C$17</f>
@@ -5051,14 +5051,14 @@
         <v>2042</v>
       </c>
       <c r="B23" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C23" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D23" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E23" s="8">
         <v>0.06</v>
@@ -5069,14 +5069,14 @@
         <v>2043</v>
       </c>
       <c r="B24" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C24" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D24" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E24" s="8">
         <v>0.06</v>
@@ -5087,14 +5087,14 @@
         <v>2044</v>
       </c>
       <c r="B25" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C25" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D25" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E25" s="8">
         <v>0.06</v>
@@ -5105,14 +5105,14 @@
         <v>2045</v>
       </c>
       <c r="B26" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C26" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D26" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E26" s="8">
         <v>0.06</v>
@@ -5123,14 +5123,14 @@
         <v>2046</v>
       </c>
       <c r="B27" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C27" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D27" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E27" s="8">
         <v>0.06</v>
@@ -5141,14 +5141,14 @@
         <v>2047</v>
       </c>
       <c r="B28" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C28" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D28" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E28" s="8">
         <v>0.06</v>
@@ -5159,14 +5159,14 @@
         <v>2048</v>
       </c>
       <c r="B29" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C29" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D29" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E29" s="8">
         <v>0.06</v>
@@ -5177,14 +5177,14 @@
         <v>2049</v>
       </c>
       <c r="B30" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C30" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D30" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E30" s="8">
         <v>0.06</v>
@@ -5195,14 +5195,14 @@
         <v>2050</v>
       </c>
       <c r="B31" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C31" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D31" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E31" s="8">
         <v>0.06</v>
@@ -5215,14 +5215,14 @@
         <v>2051</v>
       </c>
       <c r="B32" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C32" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D32" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E32" s="8">
         <v>0.06</v>
@@ -5233,14 +5233,14 @@
         <v>2052</v>
       </c>
       <c r="B33" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C33" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D33" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E33" s="8">
         <v>0.06</v>
@@ -5251,14 +5251,14 @@
         <v>2053</v>
       </c>
       <c r="B34" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C34" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D34" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E34" s="8">
         <v>0.06</v>
@@ -5269,14 +5269,14 @@
         <v>2054</v>
       </c>
       <c r="B35" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C35" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D35" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E35" s="8">
         <v>0.06</v>
@@ -5287,14 +5287,14 @@
         <v>2055</v>
       </c>
       <c r="B36" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C36" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D36" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E36" s="8">
         <v>0.06</v>
@@ -5305,14 +5305,14 @@
         <v>2056</v>
       </c>
       <c r="B37" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C37" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D37" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E37" s="8">
         <v>0.06</v>
@@ -5323,14 +5323,14 @@
         <v>2057</v>
       </c>
       <c r="B38" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C38" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D38" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E38" s="8">
         <v>0.06</v>
@@ -5341,14 +5341,14 @@
         <v>2058</v>
       </c>
       <c r="B39" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C39" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D39" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E39" s="8">
         <v>0.06</v>
@@ -5359,14 +5359,14 @@
         <v>2059</v>
       </c>
       <c r="B40" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C40" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D40" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E40" s="8">
         <v>0.06</v>
@@ -5377,14 +5377,14 @@
         <v>2060</v>
       </c>
       <c r="B41" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C41" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D41" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E41" s="8">
         <v>0.06</v>
@@ -5395,14 +5395,14 @@
         <v>2061</v>
       </c>
       <c r="B42" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C42" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D42" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E42" s="8">
         <v>0.06</v>
@@ -5413,14 +5413,14 @@
         <v>2062</v>
       </c>
       <c r="B43" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C43" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D43" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E43" s="8">
         <v>0.06</v>
@@ -5431,14 +5431,14 @@
         <v>2063</v>
       </c>
       <c r="B44" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C44" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D44" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E44" s="8">
         <v>0.06</v>
@@ -5449,14 +5449,14 @@
         <v>2064</v>
       </c>
       <c r="B45" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C45" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D45" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E45" s="8">
         <v>0.06</v>
@@ -5467,14 +5467,14 @@
         <v>2065</v>
       </c>
       <c r="B46" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C46" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D46" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E46" s="8">
         <v>0.06</v>
@@ -5485,14 +5485,14 @@
         <v>2066</v>
       </c>
       <c r="B47" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C47" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D47" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E47" s="8">
         <v>0.06</v>
@@ -5503,14 +5503,14 @@
         <v>2067</v>
       </c>
       <c r="B48" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C48" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D48" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E48" s="8">
         <v>0.06</v>
@@ -5521,14 +5521,14 @@
         <v>2068</v>
       </c>
       <c r="B49" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C49" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D49" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E49" s="8">
         <v>0.06</v>
@@ -5539,14 +5539,14 @@
         <v>2069</v>
       </c>
       <c r="B50" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C50" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D50" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E50" s="8">
         <v>0.06</v>
@@ -5557,14 +5557,14 @@
         <v>2070</v>
       </c>
       <c r="B51" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C51" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D51" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E51" s="8">
         <v>0.06</v>
@@ -5575,14 +5575,14 @@
         <v>2071</v>
       </c>
       <c r="B52" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C52" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D52" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E52" s="8">
         <v>0.06</v>
@@ -5593,14 +5593,14 @@
         <v>2072</v>
       </c>
       <c r="B53" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C53" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D53" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E53" s="8">
         <v>0.06</v>
@@ -5611,14 +5611,14 @@
         <v>2073</v>
       </c>
       <c r="B54" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C54" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D54" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E54" s="8">
         <v>0.06</v>
@@ -5629,14 +5629,14 @@
         <v>2074</v>
       </c>
       <c r="B55" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C55" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D55" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E55" s="8">
         <v>0.06</v>
@@ -5647,14 +5647,14 @@
         <v>2075</v>
       </c>
       <c r="B56" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C56" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D56" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E56" s="8">
         <v>0.06</v>
@@ -5665,14 +5665,14 @@
         <v>2076</v>
       </c>
       <c r="B57" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C57" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D57" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E57" s="8">
         <v>0.06</v>
@@ -5683,14 +5683,14 @@
         <v>2077</v>
       </c>
       <c r="B58" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C58" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D58" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E58" s="8">
         <v>0.06</v>
@@ -5701,14 +5701,14 @@
         <v>2078</v>
       </c>
       <c r="B59" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C59" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D59" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E59" s="8">
         <v>0.06</v>
@@ -5719,14 +5719,14 @@
         <v>2079</v>
       </c>
       <c r="B60" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C60" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D60" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E60" s="8">
         <v>0.06</v>
@@ -5737,14 +5737,14 @@
         <v>2080</v>
       </c>
       <c r="B61" s="6">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="C61" s="10">
         <f>'Numeric Inputs'!$C$17</f>
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D61" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E61" s="8">
         <v>0.06</v>
@@ -5756,7 +5756,7 @@
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="D62" s="10">
-        <v>0.06</v>
+        <v>7.5499999999999998E-2</v>
       </c>
     </row>
   </sheetData>
